--- a/testData/TopCities.xlsx
+++ b/testData/TopCities.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="9">
   <si>
     <t>Top Citites</t>
   </si>
